--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GIT_github\final-test-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DDA2FD-FDE2-4F30-B829-7A7793203429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B3BB3C-141E-4625-A2D5-32359211C4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="135" windowWidth="22680" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="570" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Bui Tien Duc</t>
   </si>
@@ -51,21 +51,6 @@
     <t>AccountType</t>
   </si>
   <si>
-    <t>btduc17ck1@gmail.com</t>
-  </si>
-  <si>
-    <t>btduc17ck2@gmail.com</t>
-  </si>
-  <si>
-    <t>btduc17ck3@gmail.com</t>
-  </si>
-  <si>
-    <t>btduc17ck4@gmail.com</t>
-  </si>
-  <si>
-    <t>btduc17ck5@gmail.com</t>
-  </si>
-  <si>
     <t>PhoneNumber(NULL, UNIQUE)</t>
   </si>
   <si>
@@ -88,6 +73,24 @@
   </si>
   <si>
     <t>Khuông Việt, Phú Trung, Tân Phú, TP HCM</t>
+  </si>
+  <si>
+    <t>ducbui2991@gmail.com</t>
+  </si>
+  <si>
+    <t>ducbui2992@gmail.com</t>
+  </si>
+  <si>
+    <t>ducbui2993@gmail.com</t>
+  </si>
+  <si>
+    <t>ducbui2994@gmail.com</t>
+  </si>
+  <si>
+    <t>ducbui2995@gmail.com</t>
+  </si>
+  <si>
+    <t>12A1</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0#########"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +111,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,8 +184,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -217,7 +229,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -227,7 +239,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,7 +522,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H3" sqref="H3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,17 +540,17 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -545,16 +558,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -566,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -577,13 +590,22 @@
         <v>98231471</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4">
         <v>36200</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1">
+        <v>123123</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -594,13 +616,22 @@
         <v>90370701</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
         <v>36228</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1">
+        <v>123123</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -611,13 +642,22 @@
         <v>90370702</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>36259</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1">
+        <v>123123</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -628,13 +668,22 @@
         <v>90370703</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4">
         <v>36289</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>123123</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -645,13 +694,22 @@
         <v>90370704</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4">
         <v>36320</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1">
+        <v>123123</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +717,14 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{D44BB954-8995-4910-B1F5-B7813C831019}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{0EFF8030-373E-49E8-A5C4-5ABF3AE1C534}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{2D5D047C-076A-4015-87CC-B512FEADC7C5}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{8B255540-2DB5-4982-8DC7-A1065ACC042F}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{2FDD2ECB-1DF1-4016-938D-7EF2C3602A05}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>